--- a/REGULAR/CTO/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO ALMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>UT(0-0-32)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/10,12,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
   </si>
 </sst>
 </file>
@@ -962,7 +974,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1291,12 +1303,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1471,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.332000000000001</v>
+        <v>47.239000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2584,11 +2596,15 @@
       <c r="A65" s="40">
         <v>44652</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -2604,11 +2620,15 @@
       <c r="A66" s="40">
         <v>44682</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>3</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -2618,248 +2638,248 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="39">
-        <v>2</v>
-      </c>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>44713</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="39">
-        <v>2.9000000000000012E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="39"/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39">
+        <v>2</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39">
-        <v>1</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="49">
-        <v>44762</v>
-      </c>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>44743</v>
+      </c>
       <c r="B70" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39">
-        <v>6.7000000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="49">
+        <v>44762</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="13">
-        <v>1.25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C71" s="13"/>
       <c r="D71" s="39">
-        <v>2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>44774</v>
+      </c>
       <c r="B72" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39">
-        <v>0.16500000000000001</v>
+        <v>2</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39">
-        <v>4</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>44805</v>
+      </c>
       <c r="B74" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39">
-        <v>0.217</v>
+        <v>4</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="39">
-        <v>1</v>
+        <v>0.217</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="49">
-        <v>44858</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>44835</v>
+      </c>
       <c r="B76" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39">
         <v>1</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="49">
-        <v>44838</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
@@ -2870,107 +2890,111 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49"/>
+      <c r="K77" s="49">
+        <v>44838</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D78" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H78" s="39">
-        <v>1</v>
-      </c>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49">
-        <v>44875</v>
-      </c>
+      <c r="K78" s="49"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>44866</v>
+      </c>
       <c r="B79" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="39">
-        <v>2.9000000000000012E-2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="39"/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="39">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49"/>
+      <c r="K79" s="49">
+        <v>44875</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H80" s="39">
-        <v>14</v>
-      </c>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="K80" s="49"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44896</v>
+      </c>
       <c r="B81" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="39">
-        <v>0.11700000000000001</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="39"/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="39">
+        <v>14</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -2983,34 +3007,26 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A83" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44951</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>51</v>
@@ -3031,67 +3047,71 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="49">
-        <v>44980</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44958</v>
+      </c>
       <c r="B85" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="49">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H86" s="39">
-        <v>1</v>
-      </c>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="49">
-        <v>45012</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>44986</v>
+      </c>
       <c r="B87" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39">
         <v>1</v>
@@ -3099,36 +3119,36 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="49">
-        <v>44993</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>44993</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
@@ -3142,16 +3162,14 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -3163,43 +3181,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H90" s="39">
-        <v>2</v>
-      </c>
+      <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49">
-        <v>45119</v>
+      <c r="K91" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45108</v>
+      </c>
       <c r="B92" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3210,19 +3230,19 @@
         <v/>
       </c>
       <c r="H92" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="49" t="s">
-        <v>64</v>
+      <c r="K92" s="49">
+        <v>45119</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B93" s="20"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
@@ -3231,14 +3251,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="39">
+        <v>3</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3256,7 +3280,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3274,7 +3298,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3292,7 +3316,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3310,7 +3334,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3328,7 +3352,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3346,7 +3370,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3364,7 +3388,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3382,7 +3406,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3400,7 +3424,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3418,7 +3442,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3436,7 +3460,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3454,7 +3478,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3472,7 +3496,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3490,7 +3514,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3508,7 +3532,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3526,7 +3550,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3544,7 +3568,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3562,7 +3586,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3580,7 +3604,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3598,7 +3622,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3616,7 +3640,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3634,7 +3658,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3652,7 +3676,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3670,7 +3694,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3688,7 +3712,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3706,7 +3730,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3724,7 +3748,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3742,7 +3766,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3760,7 +3784,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3778,7 +3802,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3796,7 +3820,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3814,7 +3838,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3832,7 +3856,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3850,7 +3874,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3868,7 +3892,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3886,7 +3910,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3904,7 +3928,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3922,7 +3946,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3940,7 +3964,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3958,7 +3982,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3976,7 +4000,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3994,7 +4018,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4012,7 +4036,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4030,7 +4054,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4048,7 +4072,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4066,7 +4090,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4084,7 +4108,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4102,21 +4126,39 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
         <v>46631</v>
       </c>
-      <c r="B142" s="15"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="43"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4230,11 +4272,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.9000000000000012E-2</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4283,7 +4325,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>103.33199999999999</v>
+        <v>100.239</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO ALMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -276,13 +276,13 @@
     <t>A(3-0-0)</t>
   </si>
   <si>
-    <t>5/10,12,13/2023</t>
-  </si>
-  <si>
     <t>UT(0-0-27)</t>
   </si>
   <si>
     <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>5/10,12,13/2022</t>
   </si>
 </sst>
 </file>
@@ -1306,9 +1306,9 @@
   <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1471,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.239000000000004</v>
+        <v>48.489000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1481,7 +1481,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53</v>
+        <v>54.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1509,15 +1509,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="40">
+        <v>43131</v>
+      </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -2597,7 +2601,7 @@
         <v>44652</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -2639,13 +2643,13 @@
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39">
@@ -4325,7 +4329,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>100.239</v>
+        <v>102.739</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO ALMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,9 +222,6 @@
     <t>SP(2-0-0)</t>
   </si>
   <si>
-    <t>5/12,13/2023</t>
-  </si>
-  <si>
     <t>6/19,20/2023</t>
   </si>
   <si>
@@ -289,6 +286,24 @@
   </si>
   <si>
     <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>5/12,13/2023 (12,23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-28)</t>
+  </si>
+  <si>
+    <t>UT(0-4-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
   </si>
 </sst>
 </file>
@@ -980,7 +995,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1309,12 +1324,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1358,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -1479,7 +1494,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.817000000000007</v>
+        <v>57.071000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2605,7 +2620,7 @@
         <v>44652</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -2629,7 +2644,7 @@
         <v>44682</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -2677,7 +2692,7 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39">
@@ -2699,7 +2714,7 @@
         <v>44743</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -2723,7 +2738,7 @@
         <v>44774</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -2747,7 +2762,7 @@
         <v>44805</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39">
@@ -2793,7 +2808,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39">
@@ -2815,7 +2830,7 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -2861,7 +2876,7 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -2907,7 +2922,7 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39">
@@ -2969,104 +2984,98 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39">
+        <v>9.4E-2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H81" s="39">
-        <v>1</v>
-      </c>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49">
-        <v>44980</v>
-      </c>
+      <c r="K81" s="49"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>44958</v>
+      </c>
       <c r="B82" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="39"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="39">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="49">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="49">
-        <v>45012</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39">
-        <v>1</v>
-      </c>
+      <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49">
-        <v>44993</v>
-      </c>
+      <c r="K84" s="49"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B85" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -3077,117 +3086,113 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>45012</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H86" s="39"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20" t="s">
-        <v>59</v>
+      <c r="K86" s="49">
+        <v>44993</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D87" s="39"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="39">
+        <v>0.51500000000000001</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H87" s="39">
-        <v>2</v>
-      </c>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K87" s="49"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H88" s="39">
-        <v>1</v>
-      </c>
+      <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49">
-        <v>45119</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45047</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="39">
-        <v>3</v>
-      </c>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49" t="s">
-        <v>63</v>
+      <c r="K89" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
@@ -3198,50 +3203,48 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="49"/>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
-      <c r="D91" s="39">
-        <v>0.50600000000000001</v>
-      </c>
+      <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C92" s="13"/>
       <c r="D92" s="39">
-        <v>2E-3</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -3250,62 +3253,60 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
-      <c r="D93" s="39">
-        <v>2.5000000000000008E-2</v>
-      </c>
+      <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="39">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49">
+        <v>45119</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D94" s="39">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39">
+        <v>3</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49">
-        <v>45243</v>
+      <c r="K94" s="49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39">
-        <v>0.13100000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
@@ -3320,16 +3321,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45261</v>
+        <v>45139</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
       <c r="D96" s="39">
-        <v>4</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
@@ -3343,19 +3344,23 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45170</v>
+      </c>
       <c r="B97" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39">
         <v>2E-3</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -3363,17 +3368,23 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
+      <c r="A98" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -3382,35 +3393,39 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45322</v>
+        <v>45231</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D99" s="39">
+        <v>1</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39">
-        <v>1</v>
-      </c>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="49">
-        <v>45293</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B100" s="20"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -3420,20 +3435,26 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="49"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45324</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D101" s="39">
+        <v>4</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -3441,12 +3462,14 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45325</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
+      <c r="D102" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
@@ -3459,8 +3482,8 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45326</v>
+      <c r="A103" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3478,9 +3501,11 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45327</v>
-      </c>
-      <c r="B104" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
@@ -3489,14 +3514,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="39">
+        <v>1</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="49">
+        <v>45293</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45328</v>
+        <v>45323</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3514,7 +3543,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45329</v>
+        <v>45324</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3532,7 +3561,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45330</v>
+        <v>45325</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3550,7 +3579,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45331</v>
+        <v>45326</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3568,7 +3597,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45332</v>
+        <v>45327</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3586,7 +3615,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45333</v>
+        <v>45328</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3604,7 +3633,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3622,7 +3651,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45335</v>
+        <v>45330</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3640,7 +3669,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45336</v>
+        <v>45331</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3658,7 +3687,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45337</v>
+        <v>45332</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3676,7 +3705,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45338</v>
+        <v>45333</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3694,7 +3723,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45339</v>
+        <v>45334</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3712,7 +3741,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45340</v>
+        <v>45335</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3730,7 +3759,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45341</v>
+        <v>45336</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3748,7 +3777,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45342</v>
+        <v>45337</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3766,7 +3795,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45343</v>
+        <v>45338</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3784,7 +3813,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45344</v>
+        <v>45339</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3802,7 +3831,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45345</v>
+        <v>45340</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3820,7 +3849,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45346</v>
+        <v>45341</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3838,7 +3867,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45347</v>
+        <v>45342</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3856,7 +3885,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45348</v>
+        <v>45343</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3874,7 +3903,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45349</v>
+        <v>45344</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3892,7 +3921,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45350</v>
+        <v>45345</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3910,7 +3939,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45351</v>
+        <v>45346</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3928,7 +3957,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45352</v>
+        <v>45347</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3946,7 +3975,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45353</v>
+        <v>45348</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3964,7 +3993,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45354</v>
+        <v>45349</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3982,7 +4011,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45355</v>
+        <v>45350</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4000,7 +4029,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45356</v>
+        <v>45351</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4018,7 +4047,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45357</v>
+        <v>45352</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4036,7 +4065,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45358</v>
+        <v>45353</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4054,7 +4083,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45359</v>
+        <v>45354</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4072,7 +4101,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45360</v>
+        <v>45355</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4090,7 +4119,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45361</v>
+        <v>45356</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4108,7 +4137,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45362</v>
+        <v>45357</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4126,7 +4155,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45363</v>
+        <v>45358</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4144,7 +4173,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45364</v>
+        <v>45359</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4162,7 +4191,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45365</v>
+        <v>45360</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4180,21 +4209,111 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
+        <v>45361</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>45362</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
+        <v>45363</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
+        <v>45364</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
+        <v>45365</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40">
         <v>45366</v>
       </c>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4306,11 +4425,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000001E-3</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4334,7 +4453,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4359,7 +4478,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>116.06700000000001</v>
+        <v>115.321</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO ALMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973FB8B-E54F-437E-BAE0-1F8DD2F15959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -192,9 +193,6 @@
     <t>SL(2-0-00)</t>
   </si>
   <si>
-    <t>6/1213/2022</t>
-  </si>
-  <si>
     <t>SL(1-0-0)</t>
   </si>
   <si>
@@ -219,9 +217,6 @@
     <t>CTO</t>
   </si>
   <si>
-    <t>SP(2-0-0)</t>
-  </si>
-  <si>
     <t>6/19,20/2023</t>
   </si>
   <si>
@@ -240,9 +235,6 @@
     <t>UT(0-0-14)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-21)</t>
   </si>
   <si>
@@ -270,9 +262,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>FL(4-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-1)</t>
   </si>
   <si>
@@ -291,9 +280,6 @@
     <t>UT(0-0-15)</t>
   </si>
   <si>
-    <t>5/12,13/2023 (12,23)</t>
-  </si>
-  <si>
     <t>UT(0-0-11)</t>
   </si>
   <si>
@@ -304,12 +290,24 @@
   </si>
   <si>
     <t>UT(0-0-45)</t>
+  </si>
+  <si>
+    <t>6/12-13/2022</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/12,13/2023</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -978,7 +976,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -995,25 +993,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1320,39 +1318,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1368,12 +1366,12 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -1390,19 +1388,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1412,7 +1410,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1420,7 +1418,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1433,7 +1431,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1450,7 +1448,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1494,7 +1492,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.071000000000005</v>
+        <v>60.071000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1504,12 +1502,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.25</v>
+        <v>57.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -1531,7 +1529,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1547,7 +1545,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1567,7 +1565,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1587,7 +1585,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1607,7 +1605,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1627,7 +1625,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1647,7 +1645,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1667,7 +1665,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1687,7 +1685,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1707,7 +1705,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1727,7 +1725,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1747,7 +1745,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1771,7 +1769,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -1789,7 +1787,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1809,7 +1807,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1829,7 +1827,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1849,7 +1847,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1869,7 +1867,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1889,7 +1887,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1909,7 +1907,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43678</v>
       </c>
@@ -1929,7 +1927,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43709</v>
       </c>
@@ -1949,7 +1947,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43739</v>
       </c>
@@ -1969,7 +1967,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43770</v>
       </c>
@@ -1989,7 +1987,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43800</v>
       </c>
@@ -2013,7 +2011,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>45</v>
       </c>
@@ -2031,7 +2029,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43831</v>
       </c>
@@ -2051,7 +2049,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43862</v>
       </c>
@@ -2071,7 +2069,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -2091,7 +2089,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43922</v>
       </c>
@@ -2111,7 +2109,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43952</v>
       </c>
@@ -2131,7 +2129,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43983</v>
       </c>
@@ -2151,7 +2149,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44013</v>
       </c>
@@ -2171,7 +2169,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44044</v>
       </c>
@@ -2191,7 +2189,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44075</v>
       </c>
@@ -2211,7 +2209,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44105</v>
       </c>
@@ -2231,7 +2229,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44136</v>
       </c>
@@ -2251,7 +2249,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44166</v>
       </c>
@@ -2275,7 +2273,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2291,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44197</v>
       </c>
@@ -2313,7 +2311,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44228</v>
       </c>
@@ -2333,7 +2331,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44256</v>
       </c>
@@ -2353,7 +2351,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44287</v>
       </c>
@@ -2373,7 +2371,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44317</v>
       </c>
@@ -2393,7 +2391,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44348</v>
       </c>
@@ -2413,7 +2411,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44378</v>
       </c>
@@ -2433,7 +2431,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44409</v>
       </c>
@@ -2453,7 +2451,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44440</v>
       </c>
@@ -2473,7 +2471,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44470</v>
       </c>
@@ -2493,7 +2491,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44501</v>
       </c>
@@ -2513,7 +2511,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44531</v>
       </c>
@@ -2537,7 +2535,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>47</v>
       </c>
@@ -2555,7 +2553,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44562</v>
       </c>
@@ -2575,7 +2573,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44593</v>
       </c>
@@ -2595,7 +2593,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44621</v>
       </c>
@@ -2615,12 +2613,12 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44652</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -2639,12 +2637,12 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44682</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -2663,7 +2661,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44713</v>
       </c>
@@ -2686,13 +2684,13 @@
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39">
@@ -2709,12 +2707,12 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -2733,12 +2731,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -2757,12 +2755,12 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39">
@@ -2779,12 +2777,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -2805,32 +2803,32 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="39">
-        <v>1</v>
-      </c>
+      <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="39">
+        <v>1</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="49">
         <v>44838</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -2847,12 +2845,12 @@
       <c r="J74" s="11"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -2873,10 +2871,10 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -2893,12 +2891,12 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -2916,13 +2914,13 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39">
@@ -2939,9 +2937,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2957,12 +2955,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -2983,10 +2981,10 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39">
@@ -3003,12 +3001,12 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44958</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -3029,10 +3027,10 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -3049,10 +3047,10 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39">
@@ -3069,12 +3067,12 @@
       <c r="J84" s="11"/>
       <c r="K84" s="49"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44986</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -3095,10 +3093,10 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3117,10 +3115,10 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39">
@@ -3137,12 +3135,12 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45017</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -3161,12 +3159,12 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45047</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -3182,13 +3180,13 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39">
@@ -3205,7 +3203,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45078</v>
       </c>
@@ -3228,13 +3226,13 @@
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39">
@@ -3251,12 +3249,12 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45108</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -3277,10 +3275,10 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3296,13 +3294,13 @@
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39">
@@ -3319,12 +3317,12 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45139</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -3343,12 +3341,12 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45170</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -3367,12 +3365,12 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45200</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -3391,12 +3389,12 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45231</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -3417,10 +3415,10 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39">
@@ -3437,18 +3435,18 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45261</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
       </c>
       <c r="D101" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
@@ -3461,10 +3459,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39">
@@ -3481,9 +3479,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3499,12 +3497,12 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45322</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3523,7 +3521,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45323</v>
       </c>
@@ -3541,7 +3539,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45324</v>
       </c>
@@ -3559,7 +3557,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45325</v>
       </c>
@@ -3577,7 +3575,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45326</v>
       </c>
@@ -3595,7 +3593,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45327</v>
       </c>
@@ -3613,7 +3611,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45328</v>
       </c>
@@ -3631,7 +3629,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45329</v>
       </c>
@@ -3649,7 +3647,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45330</v>
       </c>
@@ -3667,7 +3665,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45331</v>
       </c>
@@ -3685,7 +3683,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45332</v>
       </c>
@@ -3703,7 +3701,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45333</v>
       </c>
@@ -3721,7 +3719,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45334</v>
       </c>
@@ -3739,7 +3737,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45335</v>
       </c>
@@ -3757,7 +3755,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45336</v>
       </c>
@@ -3775,7 +3773,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45337</v>
       </c>
@@ -3793,7 +3791,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45338</v>
       </c>
@@ -3811,7 +3809,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45339</v>
       </c>
@@ -3829,7 +3827,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45340</v>
       </c>
@@ -3847,7 +3845,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45341</v>
       </c>
@@ -3865,7 +3863,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45342</v>
       </c>
@@ -3883,7 +3881,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>45343</v>
       </c>
@@ -3901,7 +3899,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>45344</v>
       </c>
@@ -3919,7 +3917,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>45345</v>
       </c>
@@ -3937,7 +3935,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45346</v>
       </c>
@@ -3955,7 +3953,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45347</v>
       </c>
@@ -3973,7 +3971,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>45348</v>
       </c>
@@ -3991,7 +3989,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>45349</v>
       </c>
@@ -4009,7 +4007,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>45350</v>
       </c>
@@ -4027,7 +4025,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45351</v>
       </c>
@@ -4045,7 +4043,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>45352</v>
       </c>
@@ -4063,7 +4061,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>45353</v>
       </c>
@@ -4081,7 +4079,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>45354</v>
       </c>
@@ -4099,7 +4097,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>45355</v>
       </c>
@@ -4117,7 +4115,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>45356</v>
       </c>
@@ -4135,7 +4133,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>45357</v>
       </c>
@@ -4153,7 +4151,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>45358</v>
       </c>
@@ -4171,7 +4169,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>45359</v>
       </c>
@@ -4189,7 +4187,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>45360</v>
       </c>
@@ -4207,7 +4205,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>45361</v>
       </c>
@@ -4225,7 +4223,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>45362</v>
       </c>
@@ -4243,7 +4241,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>45363</v>
       </c>
@@ -4261,7 +4259,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>45364</v>
       </c>
@@ -4279,7 +4277,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>45365</v>
       </c>
@@ -4297,7 +4295,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>45366</v>
       </c>
@@ -4330,10 +4328,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4356,28 +4354,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4390,7 +4388,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4441,19 +4439,19 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4475,10 +4473,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.321</v>
+        <v>117.321</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4506,7 +4504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4532,7 +4530,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4584,7 +4582,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4610,7 +4608,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4636,7 +4634,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4662,7 +4660,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4688,7 +4686,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4708,7 +4706,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4769,7 +4767,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4832,7 +4830,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4937,7 +4935,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4979,7 +4977,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5000,7 +4998,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5021,7 +5019,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5042,7 +5040,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5084,7 +5082,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5105,7 +5103,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5168,7 +5166,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5177,7 +5175,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5186,7 +5184,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5195,7 +5193,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5204,7 +5202,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5213,7 +5211,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5222,7 +5220,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5231,7 +5229,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5240,7 +5238,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5249,7 +5247,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5258,7 +5256,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5267,7 +5265,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5276,7 +5274,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5285,7 +5283,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5294,7 +5292,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5303,7 +5301,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5312,7 +5310,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5321,7 +5319,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5330,7 +5328,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5339,7 +5337,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5348,7 +5346,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5357,7 +5355,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5366,7 +5364,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5375,7 +5373,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5384,7 +5382,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5393,7 +5391,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5402,7 +5400,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5411,7 +5409,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5420,7 +5418,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5429,7 +5427,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
